--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H2">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>121.0966484631648</v>
+        <v>593.9572658884166</v>
       </c>
       <c r="R2">
-        <v>121.0966484631648</v>
+        <v>5345.61539299575</v>
       </c>
       <c r="S2">
-        <v>0.3350179953086487</v>
+        <v>0.5214877447129007</v>
       </c>
       <c r="T2">
-        <v>0.3350179953086487</v>
+        <v>0.5214877447129008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H3">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>30.60995863622516</v>
+        <v>110.19833100935</v>
       </c>
       <c r="R3">
-        <v>30.60995863622516</v>
+        <v>991.7849790841499</v>
       </c>
       <c r="S3">
-        <v>0.08468349131816096</v>
+        <v>0.09675288511410794</v>
       </c>
       <c r="T3">
-        <v>0.08468349131816096</v>
+        <v>0.09675288511410796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H4">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>51.84063731119124</v>
+        <v>184.218602842625</v>
       </c>
       <c r="R4">
-        <v>51.84063731119124</v>
+        <v>1657.967425583625</v>
       </c>
       <c r="S4">
-        <v>0.1434188857241651</v>
+        <v>0.1617418444858452</v>
       </c>
       <c r="T4">
-        <v>0.1434188857241651</v>
+        <v>0.1617418444858452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H5">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N5">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q5">
-        <v>19.95652170464593</v>
+        <v>71.49968247074165</v>
       </c>
       <c r="R5">
-        <v>19.95652170464593</v>
+        <v>643.4971422366749</v>
       </c>
       <c r="S5">
-        <v>0.05521039582575813</v>
+        <v>0.06277591049178331</v>
       </c>
       <c r="T5">
-        <v>0.05521039582575813</v>
+        <v>0.06277591049178333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H6">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N6">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q6">
-        <v>37.05644110437149</v>
+        <v>51.71256912223001</v>
       </c>
       <c r="R6">
-        <v>37.05644110437149</v>
+        <v>465.41312210007</v>
       </c>
       <c r="S6">
-        <v>0.1025179042493138</v>
+        <v>0.04540304933306085</v>
       </c>
       <c r="T6">
-        <v>0.1025179042493138</v>
+        <v>0.04540304933306085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H7">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N7">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q7">
-        <v>9.366866414602343</v>
+        <v>9.594358275846002</v>
       </c>
       <c r="R7">
-        <v>9.366866414602343</v>
+        <v>86.34922448261401</v>
       </c>
       <c r="S7">
-        <v>0.0259137544132654</v>
+        <v>0.008423737778095361</v>
       </c>
       <c r="T7">
-        <v>0.0259137544132654</v>
+        <v>0.008423737778095361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H8">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N8">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q8">
-        <v>15.86360603464249</v>
+        <v>16.038893334945</v>
       </c>
       <c r="R8">
-        <v>15.86360603464249</v>
+        <v>144.350040014505</v>
       </c>
       <c r="S8">
-        <v>0.04388720546389607</v>
+        <v>0.01408196648696702</v>
       </c>
       <c r="T8">
-        <v>0.04388720546389607</v>
+        <v>0.01408196648696702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H9">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N9">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q9">
-        <v>6.106838468128784</v>
+        <v>6.225081305227</v>
       </c>
       <c r="R9">
-        <v>6.106838468128784</v>
+        <v>56.025731747043</v>
       </c>
       <c r="S9">
-        <v>0.01689477625707012</v>
+        <v>0.005465550801304842</v>
       </c>
       <c r="T9">
-        <v>0.01689477625707012</v>
+        <v>0.005465550801304842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H10">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N10">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q10">
-        <v>2.01636853244537</v>
+        <v>3.963522824212221</v>
       </c>
       <c r="R10">
-        <v>2.01636853244537</v>
+        <v>35.67170541791</v>
       </c>
       <c r="S10">
-        <v>0.005578352102360368</v>
+        <v>0.003479928098236012</v>
       </c>
       <c r="T10">
-        <v>0.005578352102360368</v>
+        <v>0.003479928098236012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H11">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N11">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q11">
-        <v>0.5096834483599525</v>
+        <v>0.7353619952646665</v>
       </c>
       <c r="R11">
-        <v>0.5096834483599525</v>
+        <v>6.618257957381999</v>
       </c>
       <c r="S11">
-        <v>0.001410056589332364</v>
+        <v>0.0006456394937513777</v>
       </c>
       <c r="T11">
-        <v>0.001410056589332364</v>
+        <v>0.0006456394937513777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H12">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N12">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q12">
-        <v>0.8631934170167825</v>
+        <v>1.229305000451666</v>
       </c>
       <c r="R12">
-        <v>0.8631934170167825</v>
+        <v>11.063745004065</v>
       </c>
       <c r="S12">
-        <v>0.002388053937104207</v>
+        <v>0.001079315851605837</v>
       </c>
       <c r="T12">
-        <v>0.002388053937104207</v>
+        <v>0.001079315851605837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H13">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N13">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q13">
-        <v>0.3322941046923458</v>
+        <v>0.4771229172065554</v>
       </c>
       <c r="R13">
-        <v>0.3322941046923458</v>
+        <v>4.294106254858999</v>
       </c>
       <c r="S13">
-        <v>0.0009193029387660931</v>
+        <v>0.00041890851132652</v>
       </c>
       <c r="T13">
-        <v>0.0009193029387660931</v>
+        <v>0.00041890851132652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H14">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N14">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P14">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q14">
-        <v>35.67499068952556</v>
+        <v>55.14428258707999</v>
       </c>
       <c r="R14">
-        <v>35.67499068952556</v>
+        <v>496.2985432837199</v>
       </c>
       <c r="S14">
-        <v>0.09869607470676654</v>
+        <v>0.04841605484383393</v>
       </c>
       <c r="T14">
-        <v>0.09869607470676654</v>
+        <v>0.04841605484383393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H15">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N15">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P15">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q15">
-        <v>9.017673100063233</v>
+        <v>10.231052391816</v>
       </c>
       <c r="R15">
-        <v>9.017673100063233</v>
+        <v>92.07947152634398</v>
       </c>
       <c r="S15">
-        <v>0.02494769923587822</v>
+        <v>0.00898274799259713</v>
       </c>
       <c r="T15">
-        <v>0.02494769923587822</v>
+        <v>0.00898274799259713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H16">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N16">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P16">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q16">
-        <v>15.27221667062383</v>
+        <v>17.10325519422</v>
       </c>
       <c r="R16">
-        <v>15.27221667062383</v>
+        <v>153.92929674798</v>
       </c>
       <c r="S16">
-        <v>0.04225110668085951</v>
+        <v>0.01501646413086995</v>
       </c>
       <c r="T16">
-        <v>0.04225110668085951</v>
+        <v>0.01501646413086995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H17">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N17">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P17">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q17">
-        <v>5.879177789343352</v>
+        <v>6.638185811491999</v>
       </c>
       <c r="R17">
-        <v>5.879177789343352</v>
+        <v>59.74367230342799</v>
       </c>
       <c r="S17">
-        <v>0.01626494524865454</v>
+        <v>0.005828251873713884</v>
       </c>
       <c r="T17">
-        <v>0.01626494524865454</v>
+        <v>0.005828251873713884</v>
       </c>
     </row>
   </sheetData>
